--- a/src/main/resources/EventLogSetting.xlsx
+++ b/src/main/resources/EventLogSetting.xlsx
@@ -4,33 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9444" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="18468" windowHeight="9444" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="全局属性配置" sheetId="20" r:id="rId1"/>
     <sheet name="玩家日志" sheetId="5" r:id="rId2"/>
     <sheet name="注册日志" sheetId="4" r:id="rId3"/>
-    <sheet name="登入日志" sheetId="6" r:id="rId4"/>
-    <sheet name="登出日志" sheetId="7" r:id="rId5"/>
-    <sheet name="角色经验" sheetId="8" r:id="rId6"/>
-    <sheet name="装备日志" sheetId="9" r:id="rId7"/>
-    <sheet name="充值日志" sheetId="10" r:id="rId8"/>
-    <sheet name="道具日志" sheetId="11" r:id="rId9"/>
-    <sheet name="货币日志" sheetId="12" r:id="rId10"/>
-    <sheet name="铜币日志" sheetId="13" r:id="rId11"/>
-    <sheet name="英雄经验" sheetId="14" r:id="rId12"/>
-    <sheet name="远航点日志" sheetId="15" r:id="rId13"/>
-    <sheet name="碎片日志" sheetId="16" r:id="rId14"/>
-    <sheet name="武将日志" sheetId="17" r:id="rId15"/>
-    <sheet name="活动日志" sheetId="18" r:id="rId16"/>
-    <sheet name="vip日志" sheetId="1" r:id="rId17"/>
+    <sheet name="登入登出日志" sheetId="7" r:id="rId4"/>
+    <sheet name="角色经验" sheetId="8" r:id="rId5"/>
+    <sheet name="装备日志" sheetId="9" r:id="rId6"/>
+    <sheet name="充值日志" sheetId="10" r:id="rId7"/>
+    <sheet name="道具日志" sheetId="11" r:id="rId8"/>
+    <sheet name="货币日志" sheetId="12" r:id="rId9"/>
+    <sheet name="铜币日志" sheetId="13" r:id="rId10"/>
+    <sheet name="英雄经验" sheetId="14" r:id="rId11"/>
+    <sheet name="远航点日志" sheetId="15" r:id="rId12"/>
+    <sheet name="碎片日志" sheetId="16" r:id="rId13"/>
+    <sheet name="武将日志" sheetId="17" r:id="rId14"/>
+    <sheet name="活动日志" sheetId="18" r:id="rId15"/>
+    <sheet name="vip日志" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="292">
   <si>
     <t>ShuShu</t>
   </si>
@@ -245,6 +244,9 @@
     <t>玩家ID</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>IMEI</t>
   </si>
   <si>
@@ -260,10 +262,19 @@
     <t>该日志后台暂无</t>
   </si>
   <si>
-    <t>login_level</t>
-  </si>
-  <si>
-    <t>login_record</t>
+    <t>log_type</t>
+  </si>
+  <si>
+    <t>登录登出类型</t>
+  </si>
+  <si>
+    <t>0代表登入1代表登出</t>
+  </si>
+  <si>
+    <t>log_level</t>
+  </si>
+  <si>
+    <t>log_record</t>
   </si>
   <si>
     <t>LogRecord</t>
@@ -272,70 +283,70 @@
     <t>当前等级</t>
   </si>
   <si>
-    <t>login_gold</t>
+    <t>log_gold</t>
   </si>
   <si>
     <t>当前拥有的钻石</t>
   </si>
   <si>
-    <t>login_gift</t>
+    <t>log_gift</t>
   </si>
   <si>
     <t>当前拥有的礼券</t>
   </si>
   <si>
-    <t>login_ip</t>
-  </si>
-  <si>
-    <t>当前登入的IP</t>
-  </si>
-  <si>
-    <t>login_continuous</t>
-  </si>
-  <si>
-    <t>当前连续登入的天数</t>
-  </si>
-  <si>
-    <t>login_total</t>
-  </si>
-  <si>
-    <t>总登入天数</t>
-  </si>
-  <si>
-    <t>login_channel</t>
-  </si>
-  <si>
-    <t>登入的渠道</t>
-  </si>
-  <si>
-    <t>login_vip</t>
+    <t>log_ip</t>
+  </si>
+  <si>
+    <t>当前登录/出的IP</t>
+  </si>
+  <si>
+    <t>log_continuous</t>
+  </si>
+  <si>
+    <t>当前连续登录的天数</t>
+  </si>
+  <si>
+    <t>log_total</t>
+  </si>
+  <si>
+    <t>总登录天数</t>
+  </si>
+  <si>
+    <t>log_channel</t>
+  </si>
+  <si>
+    <t>登录/出的渠道</t>
+  </si>
+  <si>
+    <t>log_vip</t>
   </si>
   <si>
     <t>当前VIP等级</t>
   </si>
   <si>
-    <t>login_inter</t>
+    <t>log_inter</t>
   </si>
   <si>
     <t>当前拥有的内币</t>
   </si>
   <si>
-    <t>login_coin</t>
+    <t>log_coin</t>
   </si>
   <si>
     <t>当前拥有的铜币</t>
   </si>
   <si>
-    <t>login_exp</t>
+    <t>log_exp</t>
   </si>
   <si>
     <t>当前角色经验值</t>
   </si>
   <si>
-    <t>login_time</t>
-  </si>
-  <si>
-    <t>登入的时间</t>
+    <t>log_time</t>
+  </si>
+  <si>
+    <t>登出的时间</t>
   </si>
   <si>
     <t>createtime</t>
@@ -344,52 +355,7 @@
     <t>账号创建的时间</t>
   </si>
   <si>
-    <t>loginOut_level</t>
-  </si>
-  <si>
-    <t>loginOut_record</t>
-  </si>
-  <si>
-    <t>loginOut_gold</t>
-  </si>
-  <si>
-    <t>loginOut_gift</t>
-  </si>
-  <si>
-    <t>loginOut_ip</t>
-  </si>
-  <si>
-    <t>loginOut_continuous</t>
-  </si>
-  <si>
-    <t>loginOut_total</t>
-  </si>
-  <si>
-    <t>loginOut_channel</t>
-  </si>
-  <si>
-    <t>登出的渠道</t>
-  </si>
-  <si>
-    <t>loginOut_vip</t>
-  </si>
-  <si>
-    <t>loginOut_inter</t>
-  </si>
-  <si>
-    <t>loginOut_coin</t>
-  </si>
-  <si>
-    <t>loginOut_exp</t>
-  </si>
-  <si>
-    <t>loginOut_time</t>
-  </si>
-  <si>
-    <t>登出的时间</t>
-  </si>
-  <si>
-    <t>loginOut_heroInfos</t>
+    <t>log_heroInfos</t>
   </si>
   <si>
     <t>玩家拥有的英雄信息</t>
@@ -453,6 +419,12 @@
   </si>
   <si>
     <t>装备变更值</t>
+  </si>
+  <si>
+    <t>equip_current</t>
+  </si>
+  <si>
+    <t>当前装备数量（暂无该字段）</t>
   </si>
   <si>
     <t>order</t>
@@ -544,10 +516,13 @@
     </r>
   </si>
   <si>
-    <t>firstCharge</t>
-  </si>
-  <si>
-    <t>是否为首次充值</t>
+    <t>firstReward</t>
+  </si>
+  <si>
+    <t>java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>是否为首次充值当前goodsId</t>
   </si>
   <si>
     <r>
@@ -695,6 +670,12 @@
     </r>
   </si>
   <si>
+    <t>firstCharge</t>
+  </si>
+  <si>
+    <t>是否玩家首次付费充值</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.2"/>
@@ -1056,6 +1037,9 @@
       </rPr>
       <t>,</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -1994,10 +1978,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2035,21 +2019,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2069,41 +2086,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,17 +2104,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2143,36 +2157,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2239,7 +2223,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,151 +2379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2417,12 +2407,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2433,32 +2417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2487,35 +2456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2530,6 +2481,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2538,10 +2522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2550,19 +2534,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2571,112 +2555,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3163,446 +3147,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="25.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="17.5555555555556" customWidth="1"/>
-    <col min="8" max="10" width="18.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3">
-        <v>19000001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4">
-        <v>19000002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5">
-        <v>19000003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6">
-        <v>19000004</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7">
-        <v>19000005</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8">
-        <v>19000006</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9">
-        <v>19000007</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10">
-        <v>19000008</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>19000009</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12">
-        <v>19000010</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>19000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>19000012</v>
-      </c>
-      <c r="C14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3694,10 +3239,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -3723,10 +3268,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -3740,7 +3285,7 @@
         <v>20000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3752,16 +3297,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -3769,7 +3314,7 @@
         <v>20000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3781,19 +3326,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3801,7 +3346,7 @@
         <v>20000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -3813,16 +3358,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3830,7 +3375,7 @@
         <v>20000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3842,16 +3387,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -3859,7 +3404,7 @@
         <v>20000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -3871,16 +3416,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3888,7 +3433,7 @@
         <v>20000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3900,24 +3445,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
       <c r="B11">
         <v>20000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -3929,16 +3477,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -3946,7 +3494,7 @@
         <v>20000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3958,16 +3506,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3978,7 +3526,7 @@
         <v>20000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -3990,16 +3538,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4010,7 +3558,7 @@
         <v>20000012</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4025,7 +3573,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4034,13 +3582,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4134,10 +3682,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -4163,10 +3711,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -4180,7 +3728,7 @@
         <v>21000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4192,16 +3740,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4209,7 +3757,7 @@
         <v>21000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4221,19 +3769,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4241,7 +3789,7 @@
         <v>21000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4253,16 +3801,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4270,7 +3818,7 @@
         <v>21000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4282,16 +3830,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4299,7 +3847,7 @@
         <v>21000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -4311,16 +3859,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -4328,7 +3876,7 @@
         <v>21000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4340,24 +3888,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
       <c r="B11">
         <v>21000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4369,16 +3920,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -4386,7 +3937,7 @@
         <v>21000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -4398,16 +3949,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4418,7 +3969,7 @@
         <v>21000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -4430,16 +3981,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4450,7 +4001,7 @@
         <v>21000012</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4465,7 +4016,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4474,13 +4025,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4574,10 +4125,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -4603,10 +4154,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -4620,7 +4171,7 @@
         <v>22000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4632,16 +4183,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4649,7 +4200,7 @@
         <v>22000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4661,19 +4212,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4681,7 +4232,7 @@
         <v>22000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4693,16 +4244,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4710,7 +4261,7 @@
         <v>22000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4722,16 +4273,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4739,7 +4290,7 @@
         <v>22000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -4751,16 +4302,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -4768,7 +4319,7 @@
         <v>22000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4780,24 +4331,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
       <c r="B11">
         <v>22000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4809,16 +4363,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -4826,7 +4380,7 @@
         <v>22000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -4838,16 +4392,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4858,7 +4412,7 @@
         <v>22000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -4870,16 +4424,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4890,7 +4444,7 @@
         <v>22000012</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4905,7 +4459,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4914,13 +4468,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5016,13 +4570,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -5045,13 +4599,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -5062,7 +4616,7 @@
         <v>23000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5074,16 +4628,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -5091,7 +4645,7 @@
         <v>23000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5103,22 +4657,22 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:14">
@@ -5126,7 +4680,7 @@
         <v>23000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5138,19 +4692,19 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -5158,7 +4712,7 @@
         <v>23000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5170,19 +4724,19 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
         <v>238</v>
       </c>
-      <c r="J8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" t="s">
-        <v>244</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -5190,7 +4744,7 @@
         <v>23000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -5202,16 +4756,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
@@ -5222,7 +4776,7 @@
         <v>23000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -5234,67 +4788,70 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="14:14">
       <c r="N11" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:14">
       <c r="A13" t="s">
         <v>54</v>
       </c>
+      <c r="J13" t="s">
+        <v>246</v>
+      </c>
       <c r="N13" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="N14" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" ht="15" spans="14:14">
       <c r="N16" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" ht="15" spans="14:14">
       <c r="N19" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" ht="15" spans="14:14">
       <c r="N22" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +4860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M16"/>
@@ -5404,13 +4961,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -5433,13 +4990,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -5450,7 +5007,7 @@
         <v>24000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5462,16 +5019,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5479,7 +5036,7 @@
         <v>24000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5491,19 +5048,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5511,7 +5068,7 @@
         <v>24000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5523,16 +5080,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -5540,7 +5097,7 @@
         <v>24000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5552,16 +5109,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
         <v>260</v>
-      </c>
-      <c r="H8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -5569,7 +5126,7 @@
         <v>24000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -5581,16 +5138,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5601,7 +5158,7 @@
         <v>24000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -5613,29 +5170,29 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="13:13">
       <c r="M11" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5643,22 +5200,22 @@
         <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="13:13">
       <c r="M15" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="13:13">
       <c r="M16" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5667,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L13"/>
@@ -5767,13 +5324,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -5796,13 +5353,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -5813,7 +5370,7 @@
         <v>25000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5825,16 +5382,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5842,7 +5399,7 @@
         <v>25000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5854,19 +5411,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5874,7 +5431,7 @@
         <v>25000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5886,16 +5443,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5906,7 +5463,7 @@
         <v>25000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5918,21 +5475,21 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
         <v>277</v>
-      </c>
-      <c r="H8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5946,13 +5503,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6047,10 +5604,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -6076,10 +5633,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -6093,7 +5650,7 @@
         <v>26000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -6105,16 +5662,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -6122,7 +5679,7 @@
         <v>26000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -6134,19 +5691,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -6154,7 +5711,7 @@
         <v>26000005</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -6166,16 +5723,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -6183,7 +5740,7 @@
         <v>26000006</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -6195,16 +5752,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -6212,7 +5769,7 @@
         <v>26000007</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -6224,16 +5781,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -6241,7 +5798,7 @@
         <v>26000008</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -6253,16 +5810,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -6270,7 +5827,7 @@
         <v>26000009</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -6282,16 +5839,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6314,13 +5871,13 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -6330,7 +5887,7 @@
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6910,7 +6467,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7039,12 +6596,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
       <c r="B6">
         <v>12000004</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -7053,15 +6613,18 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
       <c r="B7">
         <v>12000005</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -7070,7 +6633,7 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7165,7 +6728,7 @@
     </row>
     <row r="14" spans="11:11">
       <c r="K14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7177,483 +6740,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="25.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="20.8888888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3">
-        <v>13000001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4">
-        <v>13000002</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5">
-        <v>13000003</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6">
-        <v>13000004</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7">
-        <v>13000005</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8">
-        <v>13000006</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9">
-        <v>13000007</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10">
-        <v>13000008</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>13000009</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12">
-        <v>13000010</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>13000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14">
-        <v>13000012</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>13000013</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7731,32 +6821,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>14000001</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7764,40 +6845,43 @@
       <c r="B4">
         <v>14000002</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>106</v>
+      <c r="C4" t="s">
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
       <c r="B5">
         <v>14000003</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -7806,45 +6890,48 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
       <c r="B6">
         <v>14000004</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7852,28 +6939,28 @@
         <v>14000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7881,10 +6968,10 @@
         <v>14000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -7893,16 +6980,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7910,10 +6997,10 @@
         <v>14000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -7922,16 +7009,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -7939,10 +7026,10 @@
         <v>14000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -7951,16 +7038,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7968,39 +7055,42 @@
         <v>14000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
       <c r="B12">
         <v>14000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -8009,30 +7099,30 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>14000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -8041,56 +7131,62 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
       <c r="B14">
         <v>14000012</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
       <c r="B15">
         <v>14000013</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -8099,48 +7195,80 @@
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>14000014</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>14000015</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8149,13 +7277,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8251,13 +7379,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -8280,13 +7408,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -8297,7 +7425,7 @@
         <v>15000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8309,16 +7437,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -8326,7 +7454,7 @@
         <v>15000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -8338,19 +7466,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8358,7 +7486,7 @@
         <v>15000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -8370,16 +7498,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -8387,7 +7515,7 @@
         <v>15000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -8399,16 +7527,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
         <v>121</v>
-      </c>
-      <c r="H8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -8416,7 +7544,7 @@
         <v>15000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -8428,16 +7556,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8460,13 +7588,13 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -8480,13 +7608,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8579,13 +7707,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -8608,13 +7736,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -8625,7 +7753,7 @@
         <v>16000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8637,16 +7765,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -8654,7 +7782,7 @@
         <v>16000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -8666,19 +7794,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8686,7 +7814,7 @@
         <v>16000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -8698,16 +7826,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8718,7 +7846,7 @@
         <v>16000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -8730,16 +7858,36 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -8753,13 +7901,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8879,12 +8027,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
       <c r="B5">
         <v>17000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8896,15 +8047,18 @@
         <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
       <c r="B6">
         <v>17000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -8916,10 +8070,10 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8927,7 +8081,7 @@
         <v>17000005</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -8939,7 +8093,7 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -8947,7 +8101,7 @@
         <v>17000006</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -8959,7 +8113,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -8967,7 +8121,7 @@
         <v>17000007</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -8979,7 +8133,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8987,7 +8141,7 @@
         <v>17000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -8999,7 +8153,7 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -9007,7 +8161,7 @@
         <v>17000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -9019,7 +8173,7 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -9027,7 +8181,7 @@
         <v>17000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -9039,18 +8193,18 @@
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>17000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -9062,7 +8216,7 @@
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -9070,7 +8224,7 @@
         <v>17000012</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -9082,15 +8236,18 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
       <c r="B15">
         <v>17000013</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D15">
         <v>17</v>
@@ -9102,13 +8259,16 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="2:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:12">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
       <c r="B16">
         <v>17000014</v>
       </c>
@@ -9125,10 +8285,10 @@
         <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -9136,22 +8296,22 @@
         <v>17000015</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D17">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" ht="15" spans="2:12">
@@ -9159,22 +8319,22 @@
         <v>17000016</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -9182,22 +8342,22 @@
         <v>17000017</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
         <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:12">
@@ -9213,11 +8373,14 @@
       <c r="E20" t="s">
         <v>34</v>
       </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -9225,7 +8388,7 @@
         <v>17000019</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D21">
         <v>23</v>
@@ -9233,21 +8396,42 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="12:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="2:12">
+      <c r="B22">
+        <v>17000020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9256,13 +8440,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9356,13 +8540,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -9385,13 +8569,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -9402,7 +8586,7 @@
         <v>18000003</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -9414,16 +8598,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -9431,7 +8615,7 @@
         <v>18000004</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -9443,19 +8627,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9463,7 +8647,7 @@
         <v>18000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -9475,16 +8659,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -9492,7 +8676,7 @@
         <v>18000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -9504,16 +8688,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -9521,7 +8705,7 @@
         <v>18000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -9533,16 +8717,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
         <v>179</v>
-      </c>
-      <c r="J9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -9550,7 +8734,7 @@
         <v>18000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -9562,16 +8746,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -9579,7 +8763,7 @@
         <v>18000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -9591,16 +8775,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9611,7 +8795,7 @@
         <v>18000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -9623,21 +8807,463 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="25.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="17.5555555555556" customWidth="1"/>
+    <col min="8" max="10" width="18.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>19000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>19000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>19000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <v>19000004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>19000005</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>19000006</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>19000007</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>19000008</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>19000009</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>19000010</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>19000011</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>19000012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/EventLogSetting.xlsx
+++ b/src/main/resources/EventLogSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9444" activeTab="5"/>
+    <workbookView windowWidth="18468" windowHeight="9444" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全局属性配置" sheetId="20" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="266">
   <si>
     <t>ShuShu</t>
   </si>
@@ -244,27 +244,18 @@
     <t>玩家ID</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>IMEI</t>
-  </si>
-  <si>
-    <t>设备注册码</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>注册手机型号</t>
-  </si>
-  <si>
     <t>该日志后台暂无</t>
   </si>
   <si>
     <t>log_type</t>
   </si>
   <si>
+    <t>log_record</t>
+  </si>
+  <si>
+    <t>LogRecord</t>
+  </si>
+  <si>
     <t>登录登出类型</t>
   </si>
   <si>
@@ -274,27 +265,9 @@
     <t>log_level</t>
   </si>
   <si>
-    <t>log_record</t>
-  </si>
-  <si>
-    <t>LogRecord</t>
-  </si>
-  <si>
     <t>当前等级</t>
   </si>
   <si>
-    <t>log_gold</t>
-  </si>
-  <si>
-    <t>当前拥有的钻石</t>
-  </si>
-  <si>
-    <t>log_gift</t>
-  </si>
-  <si>
-    <t>当前拥有的礼券</t>
-  </si>
-  <si>
     <t>log_ip</t>
   </si>
   <si>
@@ -325,36 +298,6 @@
     <t>当前VIP等级</t>
   </si>
   <si>
-    <t>log_inter</t>
-  </si>
-  <si>
-    <t>当前拥有的内币</t>
-  </si>
-  <si>
-    <t>log_coin</t>
-  </si>
-  <si>
-    <t>当前拥有的铜币</t>
-  </si>
-  <si>
-    <t>log_exp</t>
-  </si>
-  <si>
-    <t>当前角色经验值</t>
-  </si>
-  <si>
-    <t>log_time</t>
-  </si>
-  <si>
-    <t>登出的时间</t>
-  </si>
-  <si>
-    <t>createtime</t>
-  </si>
-  <si>
-    <t>账号创建的时间</t>
-  </si>
-  <si>
     <t>log_heroInfos</t>
   </si>
   <si>
@@ -427,13 +370,13 @@
     <t>当前装备数量（暂无该字段）</t>
   </si>
   <si>
-    <t>order</t>
+    <t>orderId</t>
   </si>
   <si>
     <t>订单ID(由平台生成的)</t>
   </si>
   <si>
-    <t>gameOrder</t>
+    <t>serial</t>
   </si>
   <si>
     <t>游戏服订单ID(由自己生成的)</t>
@@ -463,33 +406,49 @@
     <t>充值的内币数</t>
   </si>
   <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>充值附加信息</t>
-  </si>
-  <si>
-    <t>deliveryTime</t>
-  </si>
-  <si>
     <t>发货时间</t>
   </si>
   <si>
-    <t>rewards</t>
-  </si>
-  <si>
-    <t>对应的奖励物品</t>
-  </si>
-  <si>
-    <t>？考虑是否需要</t>
-  </si>
-  <si>
-    <t>充值类型</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>firstReward</t>
+  </si>
+  <si>
+    <t>java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>是否为首次充值当前goodsId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10.2"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHARGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>returnCharge</t>
+  </si>
+  <si>
+    <t>是否是删档测试服返还充值事件</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
         <color rgb="FF395DA1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -498,16 +457,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="10.2"/>
         <color rgb="FF395DA1"/>
         <rFont val="Arial Unicode MS"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">充值 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">补单 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
         <color rgb="FF395DA1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -516,13 +475,10 @@
     </r>
   </si>
   <si>
-    <t>firstReward</t>
-  </si>
-  <si>
-    <t>java.lang.Boolean</t>
-  </si>
-  <si>
-    <t>是否为首次充值当前goodsId</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>是否为测试充值</t>
   </si>
   <si>
     <r>
@@ -534,7 +490,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>CHARGE</t>
+      <t>SUPPLEMENT</t>
     </r>
     <r>
       <rPr>
@@ -547,10 +503,7 @@
     </r>
   </si>
   <si>
-    <t>returnCharge</t>
-  </si>
-  <si>
-    <t>是否是删档测试服返还充值事件</t>
+    <t>玩家充值时的等级</t>
   </si>
   <si>
     <r>
@@ -569,7 +522,7 @@
         <rFont val="Arial Unicode MS"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">补单 </t>
+      <t xml:space="preserve">扣除 </t>
     </r>
     <r>
       <rPr>
@@ -582,10 +535,10 @@
     </r>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>是否为测试充值</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>玩家充值时的战力</t>
   </si>
   <si>
     <r>
@@ -597,7 +550,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>SUPPLEMENT</t>
+      <t>DEDUCT</t>
     </r>
     <r>
       <rPr>
@@ -610,7 +563,10 @@
     </r>
   </si>
   <si>
-    <t>玩家充值时的等级</t>
+    <t>firstCharge</t>
+  </si>
+  <si>
+    <t>是否玩家首次付费充值</t>
   </si>
   <si>
     <r>
@@ -629,7 +585,7 @@
         <rFont val="Arial Unicode MS"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">扣除 </t>
+      <t>删档测试服返还充值</t>
     </r>
     <r>
       <rPr>
@@ -642,12 +598,6 @@
     </r>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>玩家充值时的战力</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -657,7 +607,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>DEDUCT</t>
+      <t>RETURN</t>
     </r>
     <r>
       <rPr>
@@ -666,63 +616,6 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <t>firstCharge</t>
-  </si>
-  <si>
-    <t>是否玩家首次付费充值</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.2"/>
-        <color rgb="FF395DA1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.2"/>
-        <color rgb="FF395DA1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删档测试服返还充值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.2"/>
-        <color rgb="FF395DA1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10.2"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RETURN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.2"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>;</t>
     </r>
   </si>
@@ -797,6 +690,9 @@
   </si>
   <si>
     <t>当前拥有数量（变更后的）</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>currency_isshop</t>
@@ -2025,9 +1921,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2043,6 +1946,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,39 +1998,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2141,14 +2037,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2223,7 +2119,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2241,55 +2215,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,31 +2281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,67 +2299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2414,30 +2310,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2452,6 +2324,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2478,6 +2359,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2522,10 +2418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2534,16 +2430,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2552,115 +2448,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3239,10 +3135,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -3268,10 +3164,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -3285,7 +3181,7 @@
         <v>20000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3297,16 +3193,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -3314,7 +3210,7 @@
         <v>20000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3326,19 +3222,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3346,7 +3242,7 @@
         <v>20000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -3358,16 +3254,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3375,7 +3271,7 @@
         <v>20000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3387,16 +3283,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -3404,7 +3300,7 @@
         <v>20000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -3416,16 +3312,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3433,7 +3329,7 @@
         <v>20000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3445,27 +3341,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>20000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -3477,16 +3373,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -3494,7 +3390,7 @@
         <v>20000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3506,16 +3402,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3526,7 +3422,7 @@
         <v>20000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -3538,16 +3434,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3558,7 +3454,7 @@
         <v>20000012</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -3573,7 +3469,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3682,10 +3578,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -3711,10 +3607,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -3728,7 +3624,7 @@
         <v>21000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3740,16 +3636,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -3757,7 +3653,7 @@
         <v>21000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3769,19 +3665,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3789,7 +3685,7 @@
         <v>21000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -3801,16 +3697,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3818,7 +3714,7 @@
         <v>21000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3830,16 +3726,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -3847,7 +3743,7 @@
         <v>21000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -3859,16 +3755,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3876,7 +3772,7 @@
         <v>21000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3888,27 +3784,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>21000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -3920,16 +3816,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -3937,7 +3833,7 @@
         <v>21000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3949,16 +3845,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3969,7 +3865,7 @@
         <v>21000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -3981,16 +3877,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4001,7 +3897,7 @@
         <v>21000012</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4016,7 +3912,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4125,10 +4021,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -4154,10 +4050,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -4171,7 +4067,7 @@
         <v>22000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4183,16 +4079,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4200,7 +4096,7 @@
         <v>22000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4212,19 +4108,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4232,7 +4128,7 @@
         <v>22000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4244,16 +4140,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4261,7 +4157,7 @@
         <v>22000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4273,16 +4169,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4290,7 +4186,7 @@
         <v>22000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -4302,16 +4198,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H9" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -4319,7 +4215,7 @@
         <v>22000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4331,27 +4227,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>22000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4363,16 +4259,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -4380,7 +4276,7 @@
         <v>22000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -4392,16 +4288,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4412,7 +4308,7 @@
         <v>22000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -4424,16 +4320,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4444,7 +4340,7 @@
         <v>22000012</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4459,7 +4355,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4570,13 +4466,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -4599,13 +4495,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -4616,7 +4512,7 @@
         <v>23000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4628,16 +4524,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -4645,7 +4541,7 @@
         <v>23000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4657,22 +4553,22 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:14">
@@ -4680,7 +4576,7 @@
         <v>23000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4692,19 +4588,19 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -4712,7 +4608,7 @@
         <v>23000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4724,19 +4620,19 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4744,7 +4640,7 @@
         <v>23000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -4756,16 +4652,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
@@ -4776,7 +4672,7 @@
         <v>23000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4788,24 +4684,24 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="14:14">
       <c r="N11" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:14">
@@ -4813,45 +4709,45 @@
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="N14" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" ht="15" spans="14:14">
       <c r="N16" s="3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" s="2" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" ht="15" spans="14:14">
       <c r="N19" s="3" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" s="2" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" ht="15" spans="14:14">
       <c r="N22" s="3" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4762,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4961,13 +4857,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -4990,13 +4886,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -5007,7 +4903,7 @@
         <v>24000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5019,16 +4915,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5036,7 +4932,7 @@
         <v>24000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5048,19 +4944,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5068,7 +4964,7 @@
         <v>24000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5080,16 +4976,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -5097,7 +4993,7 @@
         <v>24000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5109,16 +5005,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -5126,7 +5022,7 @@
         <v>24000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -5138,16 +5034,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5158,7 +5054,7 @@
         <v>24000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -5170,29 +5066,29 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M10" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="13:13">
       <c r="M11" s="2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5200,22 +5096,22 @@
         <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="13:13">
       <c r="M15" s="2" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="13:13">
       <c r="M16" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5324,13 +5220,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -5353,13 +5249,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -5370,7 +5266,7 @@
         <v>25000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5382,16 +5278,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5399,7 +5295,7 @@
         <v>25000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5411,19 +5307,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5431,7 +5327,7 @@
         <v>25000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5443,16 +5339,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5463,7 +5359,7 @@
         <v>25000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5475,21 +5371,21 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5604,10 +5500,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -5633,10 +5529,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -5650,7 +5546,7 @@
         <v>26000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5662,16 +5558,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5679,7 +5575,7 @@
         <v>26000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5691,19 +5587,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5711,7 +5607,7 @@
         <v>26000005</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5723,16 +5619,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -5740,7 +5636,7 @@
         <v>26000006</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5752,16 +5648,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -5769,7 +5665,7 @@
         <v>26000007</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -5781,16 +5677,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -5798,7 +5694,7 @@
         <v>26000008</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -5810,16 +5706,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -5827,7 +5723,7 @@
         <v>26000009</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -5839,16 +5735,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5871,13 +5767,13 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5887,7 +5783,7 @@
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6464,10 +6360,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6596,15 +6492,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
+    <row r="6" spans="2:11">
       <c r="B6">
-        <v>12000004</v>
+        <v>12000006</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -6613,122 +6506,85 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7">
-        <v>12000005</v>
+        <v>12000007</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8">
-        <v>12000006</v>
+        <v>12000008</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9">
-        <v>12000007</v>
+        <v>12000009</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10">
-        <v>12000008</v>
+        <v>12000010</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>12000009</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12">
-        <v>12000010</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="11:11">
       <c r="K12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="11:11">
-      <c r="K14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6740,10 +6596,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6826,7 +6682,7 @@
         <v>14000001</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -6834,11 +6690,20 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -6846,7 +6711,7 @@
         <v>14000002</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -6858,120 +6723,114 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5">
-        <v>14000003</v>
+        <v>14000005</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6">
-        <v>14000004</v>
+        <v>14000006</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7">
-        <v>14000005</v>
+        <v>14000007</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8">
-        <v>14000006</v>
+        <v>14000008</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -6980,27 +6839,27 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9">
-        <v>14000007</v>
+        <v>14000009</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -7009,266 +6868,48 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
       <c r="B10">
-        <v>14000008</v>
+        <v>14000015</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>14000009</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12">
-        <v>14000010</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>14000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
-        <v>14000012</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15">
-        <v>14000013</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16">
-        <v>14000014</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>14000015</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7379,13 +7020,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -7408,13 +7049,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -7425,7 +7066,7 @@
         <v>15000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -7437,16 +7078,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -7454,7 +7095,7 @@
         <v>15000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -7466,19 +7107,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7486,7 +7127,7 @@
         <v>15000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -7498,16 +7139,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7515,7 +7156,7 @@
         <v>15000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -7527,16 +7168,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7544,7 +7185,7 @@
         <v>15000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -7556,16 +7197,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7588,13 +7229,13 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -7613,8 +7254,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7707,13 +7348,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -7736,13 +7377,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -7753,7 +7394,7 @@
         <v>16000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -7765,16 +7406,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -7782,7 +7423,7 @@
         <v>16000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -7794,19 +7435,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7814,7 +7455,7 @@
         <v>16000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -7826,16 +7467,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7846,7 +7487,7 @@
         <v>16000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -7858,36 +7499,36 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
         <v>112</v>
-      </c>
-      <c r="K9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -7904,10 +7545,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="$A12:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8027,18 +7668,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
+    <row r="5" spans="2:11">
       <c r="B5">
-        <v>17000003</v>
+        <v>17000005</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -8050,21 +7688,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
+    <row r="6" spans="2:11">
       <c r="B6">
-        <v>17000004</v>
+        <v>17000006</v>
       </c>
       <c r="C6" t="s">
         <v>115</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -8072,19 +7707,16 @@
       <c r="K6" t="s">
         <v>116</v>
       </c>
-      <c r="L6" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7">
-        <v>17000005</v>
+        <v>17000007</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -8093,58 +7725,58 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8">
-        <v>17000006</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
+        <v>17000008</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9">
-        <v>17000007</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
+        <v>17000009</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10">
-        <v>17000008</v>
+        <v>17000010</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -8153,285 +7785,170 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11">
-        <v>17000009</v>
+        <v>17000012</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12">
+        <v>17000015</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="2:12">
+      <c r="B13">
+        <v>17000016</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14">
+        <v>17000017</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="2:12">
+      <c r="B15">
+        <v>17000018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16">
+        <v>17000019</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
+    </row>
+    <row r="17" ht="15" spans="2:12">
+      <c r="B17">
+        <v>17000020</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12">
-        <v>17000010</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
         <v>142</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L17" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>17000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="18" spans="12:12">
+      <c r="L18" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14">
-        <v>17000012</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15">
-        <v>17000013</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" t="s">
-        <v>149</v>
-      </c>
-      <c r="L15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:12">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16">
-        <v>17000014</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17">
-        <v>17000015</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="2:12">
-      <c r="B18">
-        <v>17000016</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19">
-        <v>17000017</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="2:12">
-      <c r="B20">
-        <v>17000018</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21">
-        <v>17000019</v>
-      </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="2:12">
-      <c r="B22">
-        <v>17000020</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="12:12">
-      <c r="L23" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8540,13 +8057,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -8569,13 +8086,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -8586,7 +8103,7 @@
         <v>18000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8598,16 +8115,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -8615,7 +8132,7 @@
         <v>18000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -8627,19 +8144,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8647,7 +8164,7 @@
         <v>18000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -8659,16 +8176,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -8676,7 +8193,7 @@
         <v>18000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -8688,16 +8205,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -8705,7 +8222,7 @@
         <v>18000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -8717,16 +8234,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8734,7 +8251,7 @@
         <v>18000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -8746,16 +8263,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -8763,7 +8280,7 @@
         <v>18000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -8775,16 +8292,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8795,7 +8312,7 @@
         <v>18000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -8807,16 +8324,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -8929,10 +8446,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -8958,10 +8475,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -8975,7 +8492,7 @@
         <v>19000003</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8987,16 +8504,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -9004,7 +8521,7 @@
         <v>19000004</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -9016,19 +8533,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9036,7 +8553,7 @@
         <v>19000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -9048,16 +8565,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -9065,7 +8582,7 @@
         <v>19000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -9077,16 +8594,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -9094,7 +8611,7 @@
         <v>19000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -9106,16 +8623,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -9123,7 +8640,7 @@
         <v>19000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -9135,27 +8652,27 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>19000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -9167,16 +8684,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -9184,7 +8701,7 @@
         <v>19000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -9196,16 +8713,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9216,7 +8733,7 @@
         <v>19000011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -9228,16 +8745,16 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9248,7 +8765,7 @@
         <v>19000012</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -9263,7 +8780,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/EventLogSetting.xlsx
+++ b/src/main/resources/EventLogSetting.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="266">
   <si>
     <t>ShuShu</t>
   </si>
@@ -1921,16 +1921,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1946,29 +1939,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1998,9 +1968,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,6 +2036,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2045,14 +2053,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,6 +2119,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2137,6 +2161,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2144,6 +2186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,61 +2215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2233,13 +2227,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,12 +2269,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2281,25 +2281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2310,6 +2310,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2324,15 +2348,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2359,21 +2374,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2418,7 +2418,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2430,16 +2430,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2448,115 +2448,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3043,7 +3043,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3484,7 +3484,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3927,7 +3927,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5405,7 +5405,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6599,7 +6599,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6689,6 +6689,9 @@
       </c>
       <c r="E3" t="s">
         <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>73</v>
@@ -8353,7 +8356,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/src/main/resources/EventLogSetting.xlsx
+++ b/src/main/resources/EventLogSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9444" activeTab="3"/>
+    <workbookView windowWidth="18468" windowHeight="9444" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="全局属性配置" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="铜币日志" sheetId="13" r:id="rId10"/>
     <sheet name="英雄经验" sheetId="14" r:id="rId11"/>
     <sheet name="远航点日志" sheetId="15" r:id="rId12"/>
-    <sheet name="碎片日志" sheetId="16" r:id="rId13"/>
+    <sheet name="碎片日志p" sheetId="16" r:id="rId13"/>
     <sheet name="武将日志" sheetId="17" r:id="rId14"/>
     <sheet name="活动日志" sheetId="18" r:id="rId15"/>
     <sheet name="vip日志" sheetId="1" r:id="rId16"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="262">
   <si>
     <t>ShuShu</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>玩家拥有的英雄信息</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>玩家的注册时间</t>
   </si>
   <si>
     <t>exp_record</t>
@@ -692,15 +698,6 @@
     <t>当前拥有数量（变更后的）</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>currency_isshop</t>
-  </si>
-  <si>
-    <t>是否为商店来源（我觉得没参考价值 可以取消）</t>
-  </si>
-  <si>
     <t>currency_vip</t>
   </si>
   <si>
@@ -737,9 +734,6 @@
     <t>currencyCopper_current</t>
   </si>
   <si>
-    <t>currencyCopper_isshop</t>
-  </si>
-  <si>
     <t>currencyCopper_vip</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
     <t>currencyHeroExp_current</t>
   </si>
   <si>
-    <t>currencyHeroExp_isshop</t>
-  </si>
-  <si>
     <t>currencyHeroExp_vip</t>
   </si>
   <si>
@@ -789,9 +780,6 @@
   </si>
   <si>
     <t>currencyVoyage_current</t>
-  </si>
-  <si>
-    <t>currencyVoyage_isshop</t>
   </si>
   <si>
     <t>currencyVoyage_vip</t>
@@ -1912,13 +1900,6 @@
       <color rgb="FF395DA1"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2036,6 +2017,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2119,61 +2107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,7 +2137,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,67 +2233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2293,13 +2251,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,10 +2406,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2430,137 +2418,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2574,6 +2562,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2994,10 +2985,10 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -3018,10 +3009,10 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" t="s">
         <v>27</v>
       </c>
@@ -3040,10 +3031,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3135,10 +3126,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" t="s">
         <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>179</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -3164,10 +3155,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" t="s">
         <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>179</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -3181,7 +3172,7 @@
         <v>20000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3193,16 +3184,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
         <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>179</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -3210,7 +3201,7 @@
         <v>20000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3222,19 +3213,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
         <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>179</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3242,7 +3233,7 @@
         <v>20000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -3254,16 +3245,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
         <v>178</v>
-      </c>
-      <c r="H7" t="s">
-        <v>179</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3271,7 +3262,7 @@
         <v>20000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3283,16 +3274,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" t="s">
         <v>178</v>
-      </c>
-      <c r="H8" t="s">
-        <v>179</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -3300,7 +3291,7 @@
         <v>20000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -3312,16 +3303,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
         <v>178</v>
-      </c>
-      <c r="H9" t="s">
-        <v>179</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3329,7 +3320,7 @@
         <v>20000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3341,135 +3332,103 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
         <v>178</v>
-      </c>
-      <c r="H10" t="s">
-        <v>179</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
-        <v>20000009</v>
+        <v>20000010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
       </c>
       <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
         <v>178</v>
-      </c>
-      <c r="H11" t="s">
-        <v>179</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12">
-        <v>20000010</v>
+        <v>20000011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" t="s">
         <v>178</v>
-      </c>
-      <c r="H12" t="s">
-        <v>179</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>20000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>186</v>
+        <v>20000012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
         <v>178</v>
-      </c>
-      <c r="H13" t="s">
-        <v>179</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>20000012</v>
-      </c>
-      <c r="C14" t="s">
         <v>176</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3481,10 +3440,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3578,10 +3537,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -3607,10 +3566,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -3624,7 +3583,7 @@
         <v>21000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3636,16 +3595,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -3653,7 +3612,7 @@
         <v>21000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3665,19 +3624,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3685,7 +3644,7 @@
         <v>21000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -3697,16 +3656,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3714,7 +3673,7 @@
         <v>21000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3726,16 +3685,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -3743,7 +3702,7 @@
         <v>21000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -3755,16 +3714,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3772,7 +3731,7 @@
         <v>21000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3784,135 +3743,103 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
-        <v>21000009</v>
+        <v>21000010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12">
-        <v>21000010</v>
+        <v>21000011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>21000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>21000012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>21000012</v>
-      </c>
-      <c r="C14" t="s">
         <v>176</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3924,10 +3851,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4021,10 +3948,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -4050,10 +3977,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -4067,7 +3994,7 @@
         <v>22000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4079,16 +4006,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4096,7 +4023,7 @@
         <v>22000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4108,19 +4035,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4128,7 +4055,7 @@
         <v>22000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4140,16 +4067,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4157,7 +4084,7 @@
         <v>22000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4169,16 +4096,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4186,7 +4113,7 @@
         <v>22000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -4198,16 +4125,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -4215,7 +4142,7 @@
         <v>22000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4227,135 +4154,103 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
-        <v>22000009</v>
+        <v>22000010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12">
-        <v>22000010</v>
+        <v>22000011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>22000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>22000012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>22000012</v>
-      </c>
-      <c r="C14" t="s">
         <v>176</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4265,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4466,13 +4361,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -4495,13 +4390,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -4512,7 +4407,7 @@
         <v>23000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4524,16 +4419,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -4541,7 +4436,7 @@
         <v>23000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4553,22 +4448,22 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:14">
@@ -4576,7 +4471,7 @@
         <v>23000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4588,19 +4483,19 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
         <v>205</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -4608,7 +4503,7 @@
         <v>23000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4620,19 +4515,19 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4640,7 +4535,7 @@
         <v>23000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -4652,16 +4547,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
@@ -4672,7 +4567,7 @@
         <v>23000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4684,70 +4579,67 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="14:14">
       <c r="N11" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:14">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="10:14">
       <c r="J13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="N14" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" ht="15" spans="14:14">
       <c r="N16" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" ht="15" spans="14:14">
       <c r="N19" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" ht="15" spans="14:14">
       <c r="N22" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4654,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4857,13 +4749,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -4886,13 +4778,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -4903,7 +4795,7 @@
         <v>24000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -4915,16 +4807,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4932,7 +4824,7 @@
         <v>24000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4944,19 +4836,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4964,7 +4856,7 @@
         <v>24000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -4976,16 +4868,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4993,7 +4885,7 @@
         <v>24000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5005,16 +4897,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>230</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -5022,7 +4914,7 @@
         <v>24000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -5034,16 +4926,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5054,7 +4946,7 @@
         <v>24000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -5066,29 +4958,29 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="13:13">
       <c r="M11" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5096,22 +4988,22 @@
         <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="13:13">
       <c r="M15" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="13:13">
       <c r="M16" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5220,13 +5112,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -5249,13 +5141,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -5266,7 +5158,7 @@
         <v>25000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5278,16 +5170,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5295,7 +5187,7 @@
         <v>25000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5307,19 +5199,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5327,7 +5219,7 @@
         <v>25000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5339,16 +5231,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5359,7 +5251,7 @@
         <v>25000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5371,21 +5263,21 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>247</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5405,7 +5297,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5500,10 +5392,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -5529,10 +5421,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -5546,7 +5438,7 @@
         <v>26000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5558,16 +5450,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -5575,7 +5467,7 @@
         <v>26000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -5587,19 +5479,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5607,7 +5499,7 @@
         <v>26000005</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -5619,16 +5511,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -5636,7 +5528,7 @@
         <v>26000006</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -5648,16 +5540,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -5665,7 +5557,7 @@
         <v>26000007</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -5677,16 +5569,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -5694,7 +5586,7 @@
         <v>26000008</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -5706,16 +5598,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -5723,7 +5615,7 @@
         <v>26000009</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -5735,16 +5627,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5767,23 +5659,18 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6596,10 +6483,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6883,12 +6770,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
+    <row r="10" spans="2:11">
       <c r="B10">
-        <v>14000015</v>
+        <v>14000010</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>89</v>
@@ -6913,6 +6797,65 @@
       </c>
       <c r="K10" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>14000011</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>14000012</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6927,7 +6870,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7023,13 +6966,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -7052,13 +6995,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -7069,7 +7012,7 @@
         <v>15000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -7081,16 +7024,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -7098,7 +7041,7 @@
         <v>15000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -7110,19 +7053,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7130,7 +7073,7 @@
         <v>15000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -7142,16 +7085,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7159,7 +7102,7 @@
         <v>15000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -7171,16 +7114,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7188,7 +7131,7 @@
         <v>15000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -7200,13 +7143,13 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
         <v>78</v>
@@ -7232,13 +7175,13 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -7255,10 +7198,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7351,13 +7294,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -7380,13 +7323,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -7397,7 +7340,7 @@
         <v>16000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -7409,16 +7352,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -7426,7 +7369,7 @@
         <v>16000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -7438,19 +7381,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7458,7 +7401,7 @@
         <v>16000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -7470,16 +7413,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7490,7 +7433,7 @@
         <v>16000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -7502,41 +7445,36 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7551,7 +7489,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7676,7 +7614,7 @@
         <v>17000005</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -7688,7 +7626,7 @@
         <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -7696,7 +7634,7 @@
         <v>17000006</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -7708,7 +7646,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7716,7 +7654,7 @@
         <v>17000007</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -7728,7 +7666,7 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -7736,7 +7674,7 @@
         <v>17000008</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -7748,7 +7686,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7756,7 +7694,7 @@
         <v>17000009</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>13</v>
@@ -7768,7 +7706,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -7776,7 +7714,7 @@
         <v>17000010</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -7788,7 +7726,7 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7808,7 +7746,7 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -7816,22 +7754,22 @@
         <v>17000015</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:12">
@@ -7839,22 +7777,22 @@
         <v>17000016</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -7862,22 +7800,22 @@
         <v>17000017</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D14">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:12">
@@ -7897,10 +7835,10 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -7908,7 +7846,7 @@
         <v>17000019</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>23</v>
@@ -7920,10 +7858,10 @@
         <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:12">
@@ -7931,27 +7869,27 @@
         <v>17000020</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D17">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7963,10 +7901,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8060,13 +7998,13 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -8089,13 +8027,13 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -8106,7 +8044,7 @@
         <v>18000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8118,16 +8056,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -8135,7 +8073,7 @@
         <v>18000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -8147,19 +8085,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8167,7 +8105,7 @@
         <v>18000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -8179,16 +8117,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -8196,7 +8134,7 @@
         <v>18000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -8208,16 +8146,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -8225,10 +8163,10 @@
         <v>18000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -8237,16 +8175,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8254,10 +8192,10 @@
         <v>18000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -8266,16 +8204,16 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -8283,10 +8221,10 @@
         <v>18000009</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -8295,16 +8233,16 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8315,10 +8253,10 @@
         <v>18000010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -8327,21 +8265,16 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -8353,10 +8286,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8449,10 +8382,10 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -8478,10 +8411,10 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -8495,7 +8428,7 @@
         <v>19000003</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -8507,16 +8440,16 @@
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -8524,7 +8457,7 @@
         <v>19000004</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -8536,19 +8469,19 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8556,7 +8489,7 @@
         <v>19000005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -8568,16 +8501,16 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -8585,7 +8518,7 @@
         <v>19000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -8597,16 +8530,16 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -8614,7 +8547,7 @@
         <v>19000007</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -8626,16 +8559,16 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8643,7 +8576,7 @@
         <v>19000008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -8655,135 +8588,103 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
-        <v>19000009</v>
+        <v>19000010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12">
-        <v>19000010</v>
+        <v>19000011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>19000011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>19000012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>19000012</v>
-      </c>
-      <c r="C14" t="s">
         <v>176</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
